--- a/Combat Narrative Guide.xlsx
+++ b/Combat Narrative Guide.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Foundry VTT\Data\modules\combat-narration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E440A89-489E-4BF2-8611-56504ACB0A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBC622-2424-4196-BBB5-38BFC6777328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weapon" sheetId="1" r:id="rId1"/>
+    <sheet name="OnDamageRoll" sheetId="1" r:id="rId1"/>
+    <sheet name="Not Effective Expansion" sheetId="5" r:id="rId2"/>
+    <sheet name="Monster Specific Expansion" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Monster Specific Expansion'!$A$1:$B$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OnDamageRoll!$A$1:$B$316</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1304">
   <si>
     <t>Filename</t>
   </si>
@@ -1921,6 +1927,2022 @@
   </si>
   <si>
     <t>You lash them with radiant fire that leaves glowing cracks in their hide.</t>
+  </si>
+  <si>
+    <t>acid_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>acid_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>acid_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>A sizzling spray lands inches from their foot, steam rising between you.</t>
+  </si>
+  <si>
+    <t>acid_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>acid_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>bludgeoning_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>bludgeoning_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>You hammer downward, but they leap aside with a grunt of effort.</t>
+  </si>
+  <si>
+    <t>bludgeoning_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>bludgeoning_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>bludgeoning_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>The foe rolls under your swing, then springs back up with a glare.</t>
+  </si>
+  <si>
+    <t>bow_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>bow_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>bow_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>bow_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>bow_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>cold_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>cold_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>They raise an arm as freezing air passes over, crystals forming on their sleeve.</t>
+  </si>
+  <si>
+    <t>cold_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>cold_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>A layer of rime crawls along the ground, chasing their retreating boots.</t>
+  </si>
+  <si>
+    <t>cold_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>fire_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>fire_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>Your fireblast scorches the wall, forcing them into a wary crouch.</t>
+  </si>
+  <si>
+    <t>fire_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>They shield their eyes as sparks fly wide and flicker out.</t>
+  </si>
+  <si>
+    <t>fire_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>fire_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>force_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>force_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>They reel as the shockwave rushes past, just missing their chest.</t>
+  </si>
+  <si>
+    <t>force_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>force_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>force_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>lightning_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>lightning_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>lightning_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>lightning_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>lightning_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>piercing_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>piercing_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>piercing_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>piercing_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>piercing_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>Your lunge forces a step back, but no blood is drawn.</t>
+  </si>
+  <si>
+    <t>poison_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>They gag at the stench, backing away before the toxin hits.</t>
+  </si>
+  <si>
+    <t>poison_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>poison_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>They cover their mouth, retreating from the poisoned air.</t>
+  </si>
+  <si>
+    <t>poison_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>poison_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>psychic_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>psychic_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>psychic_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>psychic_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>psychic_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>radiant_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>radiant_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>They shield their eyes as divine fire scorches the ground nearby.</t>
+  </si>
+  <si>
+    <t>radiant_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>radiant_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>They bow their head as light passes over, untouched by judgment.</t>
+  </si>
+  <si>
+    <t>radiant_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>slashing_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>Steel bites the air as they leap clear with a growl.</t>
+  </si>
+  <si>
+    <t>slashing_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>slashing_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>Your blade whistles by, forcing them into a hasty retreat.</t>
+  </si>
+  <si>
+    <t>slashing_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>slashing_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>thrown_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>The weapon spins past, forcing the foe to dive aside.</t>
+  </si>
+  <si>
+    <t>thrown_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>thrown_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>They twist as your throw clatters behind them.</t>
+  </si>
+  <si>
+    <t>thrown_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>thrown_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>thunder_miss_006.ogg</t>
+  </si>
+  <si>
+    <t>thunder_miss_007.ogg</t>
+  </si>
+  <si>
+    <t>thunder_miss_008.ogg</t>
+  </si>
+  <si>
+    <t>thunder_miss_009.ogg</t>
+  </si>
+  <si>
+    <t>thunder_miss_010.ogg</t>
+  </si>
+  <si>
+    <t>The acid hisses through the air-but the foe tumbles aside, eyes wide with panic.</t>
+  </si>
+  <si>
+    <t>You loose the shot just as they duck behind cover-too late.</t>
+  </si>
+  <si>
+    <t>The flames roar past-the enemy ducks, singed but smiling.</t>
+  </si>
+  <si>
+    <t>Heat lashes their armor, glowing faintly-but no pain follows.</t>
+  </si>
+  <si>
+    <t>Electric arcs dance across metal-but the target is already gone.</t>
+  </si>
+  <si>
+    <t>Your jab is quick-but their retreat is quicker.</t>
+  </si>
+  <si>
+    <t>A flash of memory-then nothing, their mind slamming shut.</t>
+  </si>
+  <si>
+    <t>Your strike splashes beside them, eating through the ground as they retreat.</t>
+  </si>
+  <si>
+    <t>The enemy dodges...barely - eyes burning from the acrid vapor.</t>
+  </si>
+  <si>
+    <t>The enemy sidesteps and smirks as your strike slams nearby.</t>
+  </si>
+  <si>
+    <t>They look at you in horror as your corrosive assault sails inches from their face. Their attention is focused squarely on you.</t>
+  </si>
+  <si>
+    <t>The shot thunks inches from their face-they look at it, then at you. You've got their attention.</t>
+  </si>
+  <si>
+    <t>A gust of frost sweeps by, coating the nearby terrain with slick ice.</t>
+  </si>
+  <si>
+    <t>Your breath fogs as the attack veers wide, a haunting cold trailing behind.</t>
+  </si>
+  <si>
+    <t>Your magical force slams nearby, flinging dust as they avert their eyes.</t>
+  </si>
+  <si>
+    <t>They brace as the pressure wave rushes past and wind whips their hair. Their eyes lock onto you, fury flashing behind them.</t>
+  </si>
+  <si>
+    <t>The blaze illuminates their face-startled, but untouched. They shift their stance, now fully fixed on your movements.</t>
+  </si>
+  <si>
+    <t>The chill brushes their cheek. You’ve drawn their gaze—sharp, unblinking, and full of intent.</t>
+  </si>
+  <si>
+    <t>A fork of lightning sears overhead, leaving the smell of ozone and a sense of dread.</t>
+  </si>
+  <si>
+    <t>They dive aside as sparks explode in a burst of crackling noise. The enemy pivots, their focus snapping to you like a drawn bowstring.</t>
+  </si>
+  <si>
+    <t>They clutch their chest-then realize, breathless, that they're unharmed. Their attention snaps to you, the weight of their intent now unmistakable.</t>
+  </si>
+  <si>
+    <t>Steel flashes past their side as they spin to face you, uncut. They tense, like a predator sizing up new prey.</t>
+  </si>
+  <si>
+    <t>The venom splashes nearby - close enough to make them sweat.</t>
+  </si>
+  <si>
+    <t>A drop of toxin hisses on the floor-their foot inches from it. They draw back, posture shifting—you're now their target.</t>
+  </si>
+  <si>
+    <t>Your probe skims their thoughts-they lock you out with fury.</t>
+  </si>
+  <si>
+    <t>They clear their mind, and your mental strike disperses.</t>
+  </si>
+  <si>
+    <t>You sense confusion-but they push through it, defiant. Their stance tightens, and the weight of their intent presses toward you.</t>
+  </si>
+  <si>
+    <t>The holy light flares brightly, but passes wide.</t>
+  </si>
+  <si>
+    <t>Your radiance forces their gaze away-but leaves no mark.</t>
+  </si>
+  <si>
+    <t>You strike sparks from stone as they sidestep at the last second. Their eyes lock with yours, and the battlefield seems to narrow.</t>
+  </si>
+  <si>
+    <t>They brace as the crack echoes past, teeth clenched. You’ve got their attention now—and all that comes with it.</t>
+  </si>
+  <si>
+    <t>The arrow whistles past their ear—they flinch, but remain standing.</t>
+  </si>
+  <si>
+    <t>Shadows claw at their feet—but they wrench free before being claimed.</t>
+  </si>
+  <si>
+    <t>The spell fades, but a haunted look lingers in their eyes.</t>
+  </si>
+  <si>
+    <t>The weapon grazes past, and they flinch—eyes now locked on you.</t>
+  </si>
+  <si>
+    <t>The boom rolls over them—they brace, shaken but untouched.</t>
+  </si>
+  <si>
+    <t>The blast erupts—they wince, ears ringing, but hold their ground.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	You drive the blade down—but they leap back, instincts screaming.</t>
+  </si>
+  <si>
+    <t>They weather the thunderous roar, rising slowly with a wary glare.</t>
+  </si>
+  <si>
+    <t>acid_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>acid_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>acid_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>bludgeoning_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>bludgeoning_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>bludgeoning_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>bow_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>bow_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>bow_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>cold_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>cold_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>cold_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>fire_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>fire_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>fire_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>force_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>force_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>force_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>lightning_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>lightning_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>lightning_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>necrotic_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>piercing_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>piercing_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>piercing_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>poison_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>poison_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>poison_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>psychic_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>psychic_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>psychic_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>radiant_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>radiant_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>radiant_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>slashing_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>slashing_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>slashing_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>thrown_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>thrown_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>thrown_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>thunder_minor_005.ogg</t>
+  </si>
+  <si>
+    <t>thunder_minor_006.ogg</t>
+  </si>
+  <si>
+    <t>thunder_minor_007.ogg</t>
+  </si>
+  <si>
+    <t>A splash lands, and they hiss as skin bubbles from the sting.</t>
+  </si>
+  <si>
+    <t>A dull crunch echoes as they grunt and double over.</t>
+  </si>
+  <si>
+    <t>They wince and clutch a rib, breath coming sharp and shallow.</t>
+  </si>
+  <si>
+    <t>A hiss escapes their lips as the shaft grazes bone.</t>
+  </si>
+  <si>
+    <t>They snarl as the arrow slices past, just shy of a deeper wound.</t>
+  </si>
+  <si>
+    <t>Their skin crackles faintly as the chill clings to exposed flesh.</t>
+  </si>
+  <si>
+    <t>They cry out, gripping at the cold that bites just beneath the skin.</t>
+  </si>
+  <si>
+    <t>They yelp as flame scorches past, leaving a blackened welt.</t>
+  </si>
+  <si>
+    <t>They grunt in pain as arcane pressure slams into their shoulder.</t>
+  </si>
+  <si>
+    <t>The pulse hits low, and they stumble with a cry of surprise.</t>
+  </si>
+  <si>
+    <t>Smoke rises as they pat down a smoldering patch of cloth, breath panting.</t>
+  </si>
+  <si>
+    <t>Arcane pressure slams into their chest-they stagger, out of breath.</t>
+  </si>
+  <si>
+    <t>They yelp as electricity snaps across their chest.</t>
+  </si>
+  <si>
+    <t>A groan escapes as veins blacken briefly with rot.</t>
+  </si>
+  <si>
+    <t>They gasp, as if the warmth is being drained from their blood.</t>
+  </si>
+  <si>
+    <t>A sharp hiss-the weapon pricks deep, and crimson wells.</t>
+  </si>
+  <si>
+    <t>They snarl, clutching where the blade slipped beneath armor.</t>
+  </si>
+  <si>
+    <t>A shallow stab draws a gasp and a spray of red.</t>
+  </si>
+  <si>
+    <t>They wheeze, clutching their side as venom seeps in.</t>
+  </si>
+  <si>
+    <t>The toxin burns just under the skin-they growl through clenched teeth.</t>
+  </si>
+  <si>
+    <t>They spit bile, face tightening as the poison takes root.</t>
+  </si>
+  <si>
+    <t>They clutch their temple, crying out as a whisper tears through thought.</t>
+  </si>
+  <si>
+    <t>A low moan escapes as they stagger, mind fogged by pain.</t>
+  </si>
+  <si>
+    <t>They cry out as divine fire licks across their skin.</t>
+  </si>
+  <si>
+    <t>A concussive boom knocks them back with a choked cry.</t>
+  </si>
+  <si>
+    <t>They stagger, ears ringing from the blast.</t>
+  </si>
+  <si>
+    <t>The thrown weapon glances off them with a bark of pain.</t>
+  </si>
+  <si>
+    <t>A sharp line of pain flashes down their arm-they ready for more.</t>
+  </si>
+  <si>
+    <t>They recoil as radiant fire traces a burning path.</t>
+  </si>
+  <si>
+    <t>They grunt as your blade bites just deep enough to draw blood.</t>
+  </si>
+  <si>
+    <t>They jerk aside, too late to dodge the strike fully. The weapon finds it's way into muscle.</t>
+  </si>
+  <si>
+    <t>Their head jolts back and they scream over the ringing in their ears.</t>
+  </si>
+  <si>
+    <t>Your blow hits the ground, but the crash echoes like a warning. They focus attention on you.</t>
+  </si>
+  <si>
+    <t>They twist aside, the arrow skimming their armor and piercing into the ground.</t>
+  </si>
+  <si>
+    <t>The shot skims past—close enough for them to see their reflection in the arrowhead.</t>
+  </si>
+  <si>
+    <t>The air shudders around them as they twist away, wind knocked out by the sudden shift in air.</t>
+  </si>
+  <si>
+    <t>Your blast strikes near. The ground cracks, and they stagger from the shock</t>
+  </si>
+  <si>
+    <t>The bolt crashes behind them. They flinch at the blinding light.</t>
+  </si>
+  <si>
+    <t>The attack lights up the room, silhouetting your foe mid-escape.</t>
+  </si>
+  <si>
+    <t>The enemy snarls as shadows brush them, recoiling from your attack.</t>
+  </si>
+  <si>
+    <t>They pull back, dodging the tendrils of darkness, breath shallow with fear.</t>
+  </si>
+  <si>
+    <t>Your blade nearly connects. They twist aside, eyes wide with alarm.</t>
+  </si>
+  <si>
+    <t>You thrust for the chest—but the point slides past, drawing only breathless space.</t>
+  </si>
+  <si>
+    <t>They wince, then steady, your presence repelled by sheer will.</t>
+  </si>
+  <si>
+    <t>The divine energy casts long shadows-but the target walks free. Their head tilts slightly, eyes narrowing as they fix on you.</t>
+  </si>
+  <si>
+    <t>They duck low, and your sword slices the wind above them.</t>
+  </si>
+  <si>
+    <t>You hurl the weapon. They duck fast, heartbeat hammering in their chest as the weapon whizzes overhead.</t>
+  </si>
+  <si>
+    <t>It whistles over their shoulder. They glare, realizing how close it was. You hear a low growl as their focus sharpens in your direction.</t>
+  </si>
+  <si>
+    <t>Your thunder shakes the ground. They stagger, unscathed.</t>
+  </si>
+  <si>
+    <t>The blow lands off-center, leaving them limping and howling.</t>
+  </si>
+  <si>
+    <t>Acidic mist burns their skin-their eyes narrow with fury.</t>
+  </si>
+  <si>
+    <t>They let out a howl as smoke rises from the corrosive burn.</t>
+  </si>
+  <si>
+    <t>The arrow nicks their side, and they gasp, blood trailing behind.</t>
+  </si>
+  <si>
+    <t>Frost dances across their limb. They shudder and exhale steam.</t>
+  </si>
+  <si>
+    <t>They scream a curse, swatting at a flare of heat that licked their limb.</t>
+  </si>
+  <si>
+    <t>A crackle and pop. Muscles seize, and they growl in pain.</t>
+  </si>
+  <si>
+    <t>A deathly chill brushes their soul. They spit and shake it off.</t>
+  </si>
+  <si>
+    <t>A sharp crack races through them. They stagger, stunned, but still standing.</t>
+  </si>
+  <si>
+    <t>Their voice trembles-"Get out of my head!".</t>
+  </si>
+  <si>
+    <t>A pained howl. Holy light sears where shadow once clung.</t>
+  </si>
+  <si>
+    <t>The cut sings red across flesh-they gasp and grimace.</t>
+  </si>
+  <si>
+    <t>A cry of pain. The weapon grazes their side and clatters past.</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Chips of stone splinter free as the blow scrapes across its rocky hide.</t>
+  </si>
+  <si>
+    <t>The strike leaves a shallow fracture, pebbles pattering to the ground.</t>
+  </si>
+  <si>
+    <t>Dust bursts from its body where the impact lands.</t>
+  </si>
+  <si>
+    <t>A crack spiders briefly through its stone form before settling.</t>
+  </si>
+  <si>
+    <t>The elemental grinds as the hit dislodges loose rock.</t>
+  </si>
+  <si>
+    <t>A heavy chunk of stone breaks free, crashing at its feet.</t>
+  </si>
+  <si>
+    <t>Deep fractures tear through its torso, grinding loudly.</t>
+  </si>
+  <si>
+    <t>The blow shatters part of its arm, leaving jagged stone edges.</t>
+  </si>
+  <si>
+    <t>Stone plates shear away, exposing darker rock beneath.</t>
+  </si>
+  <si>
+    <t>The elemental staggers as its mass fractures unevenly.</t>
+  </si>
+  <si>
+    <t>A massive section of its body collapses into rubble.</t>
+  </si>
+  <si>
+    <t>Stone explodes outward as the strike splits its core.</t>
+  </si>
+  <si>
+    <t>Its form fractures violently, barely holding together.</t>
+  </si>
+  <si>
+    <t>A thunderous crack echoes as its structure begins to fail.</t>
+  </si>
+  <si>
+    <t>The elemental collapses entirely, crashing into lifeless rubble.</t>
+  </si>
+  <si>
+    <t>Its core fractures once, then the whole body crumbles apart.</t>
+  </si>
+  <si>
+    <t>Stone screams against stone as it shatters into dust and debris.</t>
+  </si>
+  <si>
+    <t>The magic animating it fades, leaving only a pile of broken rock.</t>
+  </si>
+  <si>
+    <t>With a final grinding roar, the elemental disintegrates.</t>
+  </si>
+  <si>
+    <t>The flames sputter briefly where the strike passes through.</t>
+  </si>
+  <si>
+    <t>Fire recoils, thinning and snapping back into shape.</t>
+  </si>
+  <si>
+    <t>Sparks scatter as the blow disrupts its form.</t>
+  </si>
+  <si>
+    <t>The flames flicker violently but regain their heat.</t>
+  </si>
+  <si>
+    <t>A hiss erupts as part of the fire is briefly smothered.</t>
+  </si>
+  <si>
+    <t>The fire dims noticeably, embers spilling outward.</t>
+  </si>
+  <si>
+    <t>Flames tear apart before rejoining in a weaker surge.</t>
+  </si>
+  <si>
+    <t>The elemental shrinks momentarily, heat wavering.</t>
+  </si>
+  <si>
+    <t>Its core flickers erratically, smoke curling upward.</t>
+  </si>
+  <si>
+    <t>The fire gutters violently, losing cohesion.</t>
+  </si>
+  <si>
+    <t>Huge sections of flame collapse inward, burning unevenly.</t>
+  </si>
+  <si>
+    <t>Flames lash out chaotically as its form breaks apart.</t>
+  </si>
+  <si>
+    <t>Smoke and sparks explode outward as its heat fails.</t>
+  </si>
+  <si>
+    <t>The flames collapse inward and vanish in a choking cloud of smoke.</t>
+  </si>
+  <si>
+    <t>Its fire gutters once, then dies with a hiss.</t>
+  </si>
+  <si>
+    <t>The elemental flares brightly, then burns out completely.</t>
+  </si>
+  <si>
+    <t>Embers scatter and fade, leaving only scorched air.</t>
+  </si>
+  <si>
+    <t>The fire snuffs out, heat draining from the space it once filled.</t>
+  </si>
+  <si>
+    <t>The air ripples violently where the blow cuts through.</t>
+  </si>
+  <si>
+    <t>Wind shrieks briefly before smoothing out again.</t>
+  </si>
+  <si>
+    <t>The strike disrupts its flow, scattering swirling currents.</t>
+  </si>
+  <si>
+    <t>A sharp howl escapes as the air recoils.</t>
+  </si>
+  <si>
+    <t>Pressure shifts violently, then stabilizes.</t>
+  </si>
+  <si>
+    <t>The elemental falters, winds spiraling unevenly.</t>
+  </si>
+  <si>
+    <t>Its form tears apart before snapping back together.</t>
+  </si>
+  <si>
+    <t>Air bursts outward in a concussive blast.</t>
+  </si>
+  <si>
+    <t>The wind stutters, losing its rhythm.</t>
+  </si>
+  <si>
+    <t>Turbulence wracks its body, throwing debris aside.</t>
+  </si>
+  <si>
+    <t>The winds collapse inward, spinning chaotically.</t>
+  </si>
+  <si>
+    <t>Violent pressure waves ripple outward as its form destabilizes.</t>
+  </si>
+  <si>
+    <t>The elemental’s core disperses, barely holding cohesion.</t>
+  </si>
+  <si>
+    <t>Air screams as the currents tear themselves apart.</t>
+  </si>
+  <si>
+    <t>Its swirling mass breaks into erratic, flailing gusts.</t>
+  </si>
+  <si>
+    <t>The wind collapses suddenly, leaving dead stillness behind.</t>
+  </si>
+  <si>
+    <t>The elemental disperses, vanishing into calm air.</t>
+  </si>
+  <si>
+    <t>A final violent gust tears free, then fades.</t>
+  </si>
+  <si>
+    <t>The pressure drops instantly as the magic unravels.</t>
+  </si>
+  <si>
+    <t>The air settles, as if nothing was ever there.</t>
+  </si>
+  <si>
+    <t>The blow sends ripples racing through its watery form.</t>
+  </si>
+  <si>
+    <t>Water splashes outward before flowing back together.</t>
+  </si>
+  <si>
+    <t>The elemental sloshes violently, briefly losing shape.</t>
+  </si>
+  <si>
+    <t>A wave breaks off and splashes to the ground.</t>
+  </si>
+  <si>
+    <t>Its surface churns angrily where struck.</t>
+  </si>
+  <si>
+    <t>A surge of water spills free, splattering across the ground.</t>
+  </si>
+  <si>
+    <t>The elemental recoils, its mass thinning.</t>
+  </si>
+  <si>
+    <t>Its form sloshes unevenly, struggling to reform.</t>
+  </si>
+  <si>
+    <t>A violent splash tears through its body.</t>
+  </si>
+  <si>
+    <t>Water pours away before rejoining the whole.</t>
+  </si>
+  <si>
+    <t>The elemental breaks apart into crashing waves.</t>
+  </si>
+  <si>
+    <t>Its core collapses, water spilling in all directions.</t>
+  </si>
+  <si>
+    <t>The form thrashes wildly, barely holding together.</t>
+  </si>
+  <si>
+    <t>Massive volumes of water surge free uncontrollably.</t>
+  </si>
+  <si>
+    <t>The elemental staggers, shape collapsing under its own weight.</t>
+  </si>
+  <si>
+    <t>The water collapses into a lifeless pool.</t>
+  </si>
+  <si>
+    <t>Its magic fades, leaving only still water behind.</t>
+  </si>
+  <si>
+    <t>The elemental crashes apart and flows uselessly across the ground.</t>
+  </si>
+  <si>
+    <t>The moving water stills, becoming ordinary liquid.</t>
+  </si>
+  <si>
+    <t>The last surge spills out, leaving nothing but puddles.</t>
+  </si>
+  <si>
+    <t>The blow glances off its scales, drawing a hiss of pain.</t>
+  </si>
+  <si>
+    <t>The dragon snarls as the strike bites shallowly.</t>
+  </si>
+  <si>
+    <t>A scale cracks but holds firm.</t>
+  </si>
+  <si>
+    <t>The dragon recoils slightly, eyes burning with rage.</t>
+  </si>
+  <si>
+    <t>Scales split apart, dark blood seeping through.</t>
+  </si>
+  <si>
+    <t>The strike tears flesh beneath its armor of scales.</t>
+  </si>
+  <si>
+    <t>The dragon roars, blood spraying from the wound.</t>
+  </si>
+  <si>
+    <t>A chunk of scale breaks free, clattering to the ground.</t>
+  </si>
+  <si>
+    <t>Its muscles tense as the blow lands deep.</t>
+  </si>
+  <si>
+    <t>The dragon screams as flesh and scale are torn open.</t>
+  </si>
+  <si>
+    <t>Blood pours freely as armor and muscle fail.</t>
+  </si>
+  <si>
+    <t>A brutal strike leaves bone briefly visible beneath torn scales.</t>
+  </si>
+  <si>
+    <t>The dragon staggers, wings faltering.</t>
+  </si>
+  <si>
+    <t>The dragon crashes down, blood pooling beneath its massive body.</t>
+  </si>
+  <si>
+    <t>Its roar dies into a wet, choking silence.</t>
+  </si>
+  <si>
+    <t>The great beast shudders once, then lies still.</t>
+  </si>
+  <si>
+    <t>Scales dull as life drains from its body.</t>
+  </si>
+  <si>
+    <t>With a final, broken breath, the dragon falls dead.</t>
+  </si>
+  <si>
+    <t>earth_elemental_minor_001.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_minor_002.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_minor_003.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_minor_004.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_minor_005.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_moderate_001.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_moderate_002.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_moderate_003.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_moderate_004.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_moderate_005.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_severe_001.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_severe_002.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_severe_003.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_severe_004.oog</t>
+  </si>
+  <si>
+    <t>The elemental reels, chunks of its body breaking away mid_motion.</t>
+  </si>
+  <si>
+    <t>earth_elemental_severe_005.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_death_001.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_death_002.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_death_003.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_death_004.oog</t>
+  </si>
+  <si>
+    <t>earth_elemental_death_005.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_minor_001.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_minor_002.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_minor_003.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_minor_004.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_minor_005.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_moderate_001.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_moderate_002.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_moderate_003.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_moderate_004.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_moderate_005.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_severe_001.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_severe_002.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_severe_003.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_severe_004.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_severe_005.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_death_001.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_death_002.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_death_003.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_death_004.oog</t>
+  </si>
+  <si>
+    <t>fire_elemental_death_005.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_minor_001.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_minor_002.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_minor_003.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_minor_004.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_minor_005.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_moderate_001.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_moderate_002.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_moderate_003.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_moderate_004.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_moderate_005.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_severe_001.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_severe_002.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_severe_003.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_severe_004.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_severe_005.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_death_001.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_death_002.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_death_003.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_death_004.oog</t>
+  </si>
+  <si>
+    <t>air_elemental_death_005.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_minor_001.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_minor_002.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_minor_003.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_minor_004.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_minor_005.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_moderate_001.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_moderate_002.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_moderate_003.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_moderate_004.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_moderate_005.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_severe_001.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_severe_002.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_severe_003.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_severe_004.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_severe_005.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_death_001.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_death_002.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_death_003.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_death_004.oog</t>
+  </si>
+  <si>
+    <t>water_elemental_death_005.oog</t>
+  </si>
+  <si>
+    <t>dragon_minor_001.oog</t>
+  </si>
+  <si>
+    <t>dragon_minor_002.oog</t>
+  </si>
+  <si>
+    <t>dragon_minor_003.oog</t>
+  </si>
+  <si>
+    <t>dragon_minor_004.oog</t>
+  </si>
+  <si>
+    <t>dragon_minor_005.oog</t>
+  </si>
+  <si>
+    <t>dragon_moderate_001.oog</t>
+  </si>
+  <si>
+    <t>dragon_moderate_002.oog</t>
+  </si>
+  <si>
+    <t>dragon_moderate_003.oog</t>
+  </si>
+  <si>
+    <t>dragon_moderate_004.oog</t>
+  </si>
+  <si>
+    <t>dragon_moderate_005.oog</t>
+  </si>
+  <si>
+    <t>dragon_severe_001.oog</t>
+  </si>
+  <si>
+    <t>dragon_severe_002.oog</t>
+  </si>
+  <si>
+    <t>dragon_severe_003.oog</t>
+  </si>
+  <si>
+    <t>dragon_severe_004.oog</t>
+  </si>
+  <si>
+    <t>dragon_severe_005.oog</t>
+  </si>
+  <si>
+    <t>dragon_death_001.oog</t>
+  </si>
+  <si>
+    <t>dragon_death_002.oog</t>
+  </si>
+  <si>
+    <t>dragon_death_003.oog</t>
+  </si>
+  <si>
+    <t>dragon_death_004.oog</t>
+  </si>
+  <si>
+    <t>dragon_death_005.oog</t>
+  </si>
+  <si>
+    <t>A chunk of living flame is torn free and sputters out.</t>
+  </si>
+  <si>
+    <t>The elemental roars as its core flares, wildly unstable.</t>
+  </si>
+  <si>
+    <t>Sparks fly as your strike scrapes against hardened scales.</t>
+  </si>
+  <si>
+    <t>dragon_minor_006.oog</t>
+  </si>
+  <si>
+    <t>A few scales shift out of place as the dragon growls.</t>
+  </si>
+  <si>
+    <t>dragon_minor_007.oog</t>
+  </si>
+  <si>
+    <t>The impact leaves a shallow mark across its armored hide.</t>
+  </si>
+  <si>
+    <t>dragon_minor_008.oog</t>
+  </si>
+  <si>
+    <t>The dragon flinches, scales rasping as it pulls back.</t>
+  </si>
+  <si>
+    <t>dragon_minor_009.oog</t>
+  </si>
+  <si>
+    <t>A thin line of blood seeps between overlapping scales.</t>
+  </si>
+  <si>
+    <t>dragon_minor_010.oog</t>
+  </si>
+  <si>
+    <t>Its muscles tense as irritation flashes across its face.</t>
+  </si>
+  <si>
+    <t>dragon_minor_011.oog</t>
+  </si>
+  <si>
+    <t>The dragon exhales sharply, pain flickering behind its eyes.</t>
+  </si>
+  <si>
+    <t>dragon_minor_012.oog</t>
+  </si>
+  <si>
+    <t>The hide dents briefly before settling back into place.</t>
+  </si>
+  <si>
+    <t>dragon_minor_013.oog</t>
+  </si>
+  <si>
+    <t>A low snarl rumbles as the damage barely breaks its defense.</t>
+  </si>
+  <si>
+    <t>dragon_minor_014.oog</t>
+  </si>
+  <si>
+    <t>The dragon shakes its body, scales grinding together.</t>
+  </si>
+  <si>
+    <t>dragon_minor_015.oog</t>
+  </si>
+  <si>
+    <t>The wound is shallow, but the insult does not go unnoticed.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_006.oog</t>
+  </si>
+  <si>
+    <t>Blood runs freely as the hide finally gives way.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_007.oog</t>
+  </si>
+  <si>
+    <t>Torn scales expose raw, bleeding flesh beneath.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_008.oog</t>
+  </si>
+  <si>
+    <t>The dragon snarls in pain, favoring the wounded area.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_009.oog</t>
+  </si>
+  <si>
+    <t>A ragged wound opens along its flank.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_010.oog</t>
+  </si>
+  <si>
+    <t>The beast recoils, thick blood dripping from broken scales.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_011.oog</t>
+  </si>
+  <si>
+    <t>Its roar shakes with anger and pain as the wound deepens.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_012.oog</t>
+  </si>
+  <si>
+    <t>The dragon stumbles a step, muscles spasming.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_013.oog</t>
+  </si>
+  <si>
+    <t>Blood spatters the ground as the damage cuts through its armor.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_014.oog</t>
+  </si>
+  <si>
+    <t>The hide splits wider as the dragon thrashes.</t>
+  </si>
+  <si>
+    <t>dragon_moderate_015.oog</t>
+  </si>
+  <si>
+    <t>The wound bleeds heavily, drawing a furious bellow.</t>
+  </si>
+  <si>
+    <t>dragon_severe_006.oog</t>
+  </si>
+  <si>
+    <t>A massive gash rips open, exposing pulsing muscle beneath.</t>
+  </si>
+  <si>
+    <t>dragon_severe_007.oog</t>
+  </si>
+  <si>
+    <t>Blood sheets down its body as the dragon reels in agony.</t>
+  </si>
+  <si>
+    <t>dragon_severe_008.oog</t>
+  </si>
+  <si>
+    <t>Scales burst apart as the wound carves deep into its frame.</t>
+  </si>
+  <si>
+    <t>dragon_severe_009.oog</t>
+  </si>
+  <si>
+    <t>The dragon screams, pain overwhelming its fury.</t>
+  </si>
+  <si>
+    <t>dragon_severe_010.oog</t>
+  </si>
+  <si>
+    <t>Bone cracks beneath torn flesh as the beast collapses inward.</t>
+  </si>
+  <si>
+    <t>dragon_severe_011.oog</t>
+  </si>
+  <si>
+    <t>Its wings twitch erratically, soaked in blood.</t>
+  </si>
+  <si>
+    <t>dragon_severe_012.oog</t>
+  </si>
+  <si>
+    <t>The dragon stumbles hard, struggling to stay upright.</t>
+  </si>
+  <si>
+    <t>dragon_severe_013.oog</t>
+  </si>
+  <si>
+    <t>A wet, tearing sound follows as the wound widens.</t>
+  </si>
+  <si>
+    <t>dragon_severe_014.oog</t>
+  </si>
+  <si>
+    <t>Blood pools rapidly beneath its heaving body.</t>
+  </si>
+  <si>
+    <t>dragon_severe_015.oog</t>
+  </si>
+  <si>
+    <t>The dragon’s roar breaks into a pained, choking howl.</t>
+  </si>
+  <si>
+    <t>dragon_death_006.oog</t>
+  </si>
+  <si>
+    <t>The dragon collapses in a heap of torn scales and blood.</t>
+  </si>
+  <si>
+    <t>dragon_death_007.oog</t>
+  </si>
+  <si>
+    <t>dragon_death_008.oog</t>
+  </si>
+  <si>
+    <t>Blood spills freely as the dragon’s strength finally fails.</t>
+  </si>
+  <si>
+    <t>dragon_death_009.oog</t>
+  </si>
+  <si>
+    <t>The beast exhales one last rattling breath, then goes still.</t>
+  </si>
+  <si>
+    <t>dragon_death_010.oog</t>
+  </si>
+  <si>
+    <t>Its wings twitch weakly before falling slack.</t>
+  </si>
+  <si>
+    <t>dragon_death_011.oog</t>
+  </si>
+  <si>
+    <t>The dragon’s head crashes down, eyes glazing over.</t>
+  </si>
+  <si>
+    <t>dragon_death_012.oog</t>
+  </si>
+  <si>
+    <t>A final shudder runs through its body as life leaves it.</t>
+  </si>
+  <si>
+    <t>dragon_death_013.oog</t>
+  </si>
+  <si>
+    <t>The massive form slumps, bleeding out onto the ground.</t>
+  </si>
+  <si>
+    <t>dragon_death_014.oog</t>
+  </si>
+  <si>
+    <t>The dragon’s chest stops rising, silence settling in.</t>
+  </si>
+  <si>
+    <t>dragon_death_015.oog</t>
+  </si>
+  <si>
+    <t>The once-mighty creature lies broken, motionless, and dead.</t>
+  </si>
+  <si>
+    <t>Its roar turns ragged as the dragon squirms in pain.</t>
+  </si>
+  <si>
+    <t>Its body slams into the ground, lifeless.</t>
+  </si>
+  <si>
+    <t>Narration Line</t>
+  </si>
+  <si>
+    <t>acid_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The acid hisses harmlessly as it slides off without leaving a mark.</t>
+  </si>
+  <si>
+    <t>acid_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Corrosive liquid splashes, but the surface remains untouched.</t>
+  </si>
+  <si>
+    <t>acid_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The acid steams briefly, then fades with no effect.</t>
+  </si>
+  <si>
+    <t>acid_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The caustic strike fails to eat away at its target.</t>
+  </si>
+  <si>
+    <t>acid_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>Acid pools for a moment before evaporating uselessly.</t>
+  </si>
+  <si>
+    <t>bludgeoning_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The blow lands solidly, but nothing gives.</t>
+  </si>
+  <si>
+    <t>bludgeoning_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>The impact thuds with force, yet causes no harm.</t>
+  </si>
+  <si>
+    <t>bludgeoning_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The strike connects, but the target doesn’t flinch.</t>
+  </si>
+  <si>
+    <t>bludgeoning_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>A heavy hit, absorbed without consequence.</t>
+  </si>
+  <si>
+    <t>bludgeoning_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The force disperses harmlessly on contact.</t>
+  </si>
+  <si>
+    <t>bow_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The arrow strikes true, but fails to bite.</t>
+  </si>
+  <si>
+    <t>bow_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>The shaft glances off without drawing blood.</t>
+  </si>
+  <si>
+    <t>bow_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The shot lands, but does no real damage.</t>
+  </si>
+  <si>
+    <t>bow_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The arrow’s impact is shrugged off.</t>
+  </si>
+  <si>
+    <t>bow_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The missile hits, yet leaves no mark.</t>
+  </si>
+  <si>
+    <t>cold_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>Frost creeps briefly, then melts away without effect.</t>
+  </si>
+  <si>
+    <t>cold_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>The chilling force fails to take hold.</t>
+  </si>
+  <si>
+    <t>cold_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>Ice forms, then cracks and vanishes.</t>
+  </si>
+  <si>
+    <t>cold_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The cold washes over the target, ineffective.</t>
+  </si>
+  <si>
+    <t>cold_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>Freezing energy dissipates harmlessly.</t>
+  </si>
+  <si>
+    <t>fire_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>Flames lick the surface, but fail to burn.</t>
+  </si>
+  <si>
+    <t>fire_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>The fire roars, then gutters out with no effect.</t>
+  </si>
+  <si>
+    <t>fire_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>Heat washes over the target, leaving nothing scorched.</t>
+  </si>
+  <si>
+    <t>fire_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The blaze finds nothing to consume.</t>
+  </si>
+  <si>
+    <t>fire_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>Fire splashes and fades without consequence.</t>
+  </si>
+  <si>
+    <t>force_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>Invisible power crashes, but fails to move its target.</t>
+  </si>
+  <si>
+    <t>force_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>The force disperses without effect.</t>
+  </si>
+  <si>
+    <t>force_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>Raw energy strikes, then collapses into nothing.</t>
+  </si>
+  <si>
+    <t>force_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The impact ripples outward, harmless.</t>
+  </si>
+  <si>
+    <t>force_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The force finds no purchase.</t>
+  </si>
+  <si>
+    <t>lightning_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>Lightning crackles, then grounds out harmlessly.</t>
+  </si>
+  <si>
+    <t>lightning_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Sparks dance briefly before fading away.</t>
+  </si>
+  <si>
+    <t>lightning_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The bolt strikes, but fails to conduct.</t>
+  </si>
+  <si>
+    <t>lightning_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>Electrical energy disperses without effect.</t>
+  </si>
+  <si>
+    <t>lightning_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The lightning’s fury dissipates instantly.</t>
+  </si>
+  <si>
+    <t>necrotic_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>Dark energy reaches out, but finds no life to drain.</t>
+  </si>
+  <si>
+    <t>necrotic_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Necrotic power curls inward and fades.</t>
+  </si>
+  <si>
+    <t>necrotic_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The shadowy force fails to corrupt.</t>
+  </si>
+  <si>
+    <t>necrotic_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>Deathly energy slips away unused.</t>
+  </si>
+  <si>
+    <t>necrotic_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The necrotic touch leaves nothing diminished.</t>
+  </si>
+  <si>
+    <t>piercing_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The strike finds no opening.</t>
+  </si>
+  <si>
+    <t>piercing_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>The point fails to penetrate.</t>
+  </si>
+  <si>
+    <t>piercing_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The attack lands, but cannot pierce.</t>
+  </si>
+  <si>
+    <t>piercing_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The blow glances off without harm.</t>
+  </si>
+  <si>
+    <t>piercing_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The thrust meets unyielding resistance.</t>
+  </si>
+  <si>
+    <t>poison_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The poison fails to take hold.</t>
+  </si>
+  <si>
+    <t>poison_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Toxins spread briefly, then dissipate.</t>
+  </si>
+  <si>
+    <t>poison_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>Venom seeps in, but has no effect.</t>
+  </si>
+  <si>
+    <t>poison_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The poison is resisted entirely.</t>
+  </si>
+  <si>
+    <t>poison_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The toxic strike proves harmless.</t>
+  </si>
+  <si>
+    <t>psychic_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The mental assault finds no foothold.</t>
+  </si>
+  <si>
+    <t>psychic_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Psychic pressure fades without impact.</t>
+  </si>
+  <si>
+    <t>psychic_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The mind remains untouched.</t>
+  </si>
+  <si>
+    <t>psychic_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>Thought and will repel the intrusion.</t>
+  </si>
+  <si>
+    <t>psychic_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The psychic force dissolves harmlessly.</t>
+  </si>
+  <si>
+    <t>radiant_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>Holy light flares, then dims without effect.</t>
+  </si>
+  <si>
+    <t>radiant_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Radiance washes over the target, ineffective.</t>
+  </si>
+  <si>
+    <t>radiant_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The brilliant energy fails to burn.</t>
+  </si>
+  <si>
+    <t>radiant_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>Light shines, but causes no harm.</t>
+  </si>
+  <si>
+    <t>radiant_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>Radiant power fades unused.</t>
+  </si>
+  <si>
+    <t>slashing_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The blade fails to cut.</t>
+  </si>
+  <si>
+    <t>slashing_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Steel scrapes, but finds no purchase.</t>
+  </si>
+  <si>
+    <t>slashing_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The slash lands without drawing blood.</t>
+  </si>
+  <si>
+    <t>slashing_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>The edge glances off harmlessly.</t>
+  </si>
+  <si>
+    <t>slashing_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The strike meets unyielding resistance.</t>
+  </si>
+  <si>
+    <t>thrown_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The projectile strikes, but does no damage.</t>
+  </si>
+  <si>
+    <t>thrown_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>The thrown weapon lands without effect.</t>
+  </si>
+  <si>
+    <t>thrown_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>thrown_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>thrown_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The thrown attack is shrugged off.</t>
+  </si>
+  <si>
+    <t>thunder_not_effective_001.oog</t>
+  </si>
+  <si>
+    <t>The concussive blast echoes, but does no harm.</t>
+  </si>
+  <si>
+    <t>thunder_not_effective_002.oog</t>
+  </si>
+  <si>
+    <t>Thunder rolls, then fades harmlessly.</t>
+  </si>
+  <si>
+    <t>thunder_not_effective_003.oog</t>
+  </si>
+  <si>
+    <t>The shockwave disperses without effect.</t>
+  </si>
+  <si>
+    <t>thunder_not_effective_004.oog</t>
+  </si>
+  <si>
+    <t>thunder_not_effective_005.oog</t>
+  </si>
+  <si>
+    <t>The thunderous impact is absorbed entirely.</t>
+  </si>
+  <si>
+    <t>Sound and force fail to cause any injury.</t>
+  </si>
+  <si>
+    <t>The impact fails to cause any harm.</t>
+  </si>
+  <si>
+    <t>The projectile makes impact without consequence.</t>
+  </si>
+  <si>
+    <t>You carve a gash in their armor, but miss the flesh beneath.</t>
+  </si>
+  <si>
+    <t>Your weapon whooshes past their torso. A tremor runs through their body.</t>
   </si>
 </sst>
 </file>
@@ -1944,12 +3966,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1964,9 +3992,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2247,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2272,10 +4312,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2283,2518 +4323,5259 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>524</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>763</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>764</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>765</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
-        <v>602</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>632</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>633</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>634</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>636</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>637</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>526</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>528</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>530</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>532</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>766</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>857</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>767</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>768</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>638</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>733</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>639</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>641</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>642</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>643</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>769</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>860</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>770</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>771</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>811</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>645</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>646</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>647</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>841</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>648</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>649</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>755</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>581</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>582</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>612</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>583</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>573</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>574</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>611</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>772</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>861</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>773</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>774</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>814</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>650</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>736</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>651</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>653</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>741</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>654</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>656</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>575</v>
       </c>
       <c r="B112" t="s">
-        <v>241</v>
+        <v>605</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>576</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>577</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>579</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>580</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>550</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>551</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>552</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>209</v>
+        <v>554</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>540</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>609</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>541</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>775</v>
       </c>
       <c r="B126" t="s">
-        <v>289</v>
+        <v>815</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>776</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>862</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>777</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>818</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="B130" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>657</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>726</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>658</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>659</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>660</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>661</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>662</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>727</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>270</v>
+        <v>663</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>740</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>543</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>545</v>
       </c>
       <c r="B142" t="s">
-        <v>291</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>546</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>548</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="B148" t="s">
-        <v>288</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>778</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>816</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>779</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>817</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>309</v>
+        <v>780</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>819</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>482</v>
       </c>
       <c r="B158" t="s">
-        <v>350</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>484</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>486</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="B162" t="s">
-        <v>351</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>664</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>738</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>665</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>667</v>
       </c>
       <c r="B165" t="s">
-        <v>352</v>
+        <v>843</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>668</v>
       </c>
       <c r="B166" t="s">
-        <v>325</v>
+        <v>844</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>326</v>
+        <v>669</v>
       </c>
       <c r="B167" t="s">
-        <v>327</v>
+        <v>739</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B169" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="B170" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="B171" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="B172" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="B173" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="B175" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="B176" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>345</v>
+        <v>567</v>
       </c>
       <c r="B177" t="s">
-        <v>346</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>347</v>
+        <v>569</v>
       </c>
       <c r="B178" t="s">
-        <v>348</v>
+        <v>570</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>571</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>572</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>556</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>557</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>558</v>
       </c>
       <c r="B183" t="s">
-        <v>474</v>
+        <v>559</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>781</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>820</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>365</v>
+        <v>782</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>863</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>783</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>865</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="B191" t="s">
-        <v>479</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>378</v>
+        <v>670</v>
       </c>
       <c r="B192" t="s">
-        <v>475</v>
+        <v>845</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>671</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>742</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>672</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>743</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>383</v>
+        <v>673</v>
       </c>
       <c r="B195" t="s">
-        <v>384</v>
+        <v>728</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>674</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>846</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>387</v>
+        <v>46</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>389</v>
+        <v>47</v>
       </c>
       <c r="B198" t="s">
-        <v>390</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>391</v>
+        <v>560</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>393</v>
+        <v>562</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>395</v>
+        <v>48</v>
       </c>
       <c r="B201" t="s">
-        <v>396</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>397</v>
+        <v>50</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>399</v>
+        <v>564</v>
       </c>
       <c r="B203" t="s">
-        <v>400</v>
+        <v>565</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>401</v>
+        <v>566</v>
       </c>
       <c r="B204" t="s">
-        <v>402</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>404</v>
+        <v>83</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>405</v>
+        <v>596</v>
       </c>
       <c r="B206" t="s">
-        <v>406</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>407</v>
+        <v>598</v>
       </c>
       <c r="B207" t="s">
-        <v>408</v>
+        <v>613</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>409</v>
+        <v>599</v>
       </c>
       <c r="B208" t="s">
-        <v>410</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>58</v>
       </c>
       <c r="B209" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>412</v>
+        <v>59</v>
       </c>
       <c r="B210" t="s">
-        <v>413</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>414</v>
+        <v>584</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>416</v>
+        <v>586</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>784</v>
       </c>
       <c r="B213" t="s">
-        <v>419</v>
+        <v>821</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>785</v>
       </c>
       <c r="B214" t="s">
-        <v>421</v>
+        <v>864</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>422</v>
+        <v>786</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>822</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="B216" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="B217" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="B218" t="s">
-        <v>429</v>
+        <v>353</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="B219" t="s">
-        <v>431</v>
+        <v>336</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>337</v>
       </c>
       <c r="B220" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>434</v>
+        <v>675</v>
       </c>
       <c r="B221" t="s">
-        <v>435</v>
+        <v>847</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>436</v>
+        <v>676</v>
       </c>
       <c r="B222" t="s">
-        <v>437</v>
+        <v>848</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>438</v>
+        <v>677</v>
       </c>
       <c r="B223" t="s">
-        <v>477</v>
+        <v>756</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>439</v>
+        <v>678</v>
       </c>
       <c r="B224" t="s">
-        <v>440</v>
+        <v>757</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>679</v>
       </c>
       <c r="B225" t="s">
-        <v>442</v>
+        <v>744</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>443</v>
+        <v>60</v>
       </c>
       <c r="B226" t="s">
-        <v>444</v>
+        <v>165</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>445</v>
+        <v>61</v>
       </c>
       <c r="B227" t="s">
-        <v>478</v>
+        <v>166</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>446</v>
+        <v>588</v>
       </c>
       <c r="B228" t="s">
-        <v>447</v>
+        <v>589</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>448</v>
+        <v>590</v>
       </c>
       <c r="B229" t="s">
-        <v>449</v>
+        <v>591</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>450</v>
+        <v>62</v>
       </c>
       <c r="B230" t="s">
-        <v>451</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>452</v>
+        <v>64</v>
       </c>
       <c r="B231" t="s">
-        <v>480</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>453</v>
+        <v>592</v>
       </c>
       <c r="B232" t="s">
-        <v>454</v>
+        <v>593</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>455</v>
+        <v>594</v>
       </c>
       <c r="B233" t="s">
-        <v>456</v>
+        <v>595</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>457</v>
+        <v>73</v>
       </c>
       <c r="B234" t="s">
-        <v>458</v>
+        <v>115</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>459</v>
+        <v>116</v>
       </c>
       <c r="B235" t="s">
-        <v>460</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>461</v>
+        <v>118</v>
       </c>
       <c r="B236" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>463</v>
+        <v>120</v>
       </c>
       <c r="B237" t="s">
-        <v>464</v>
+        <v>121</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>465</v>
+        <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>467</v>
+        <v>13</v>
       </c>
       <c r="B239" t="s">
-        <v>468</v>
+        <v>105</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>469</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>481</v>
+        <v>106</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>470</v>
+        <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>471</v>
+        <v>174</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>472</v>
+        <v>787</v>
       </c>
       <c r="B242" t="s">
-        <v>473</v>
+        <v>823</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>482</v>
+        <v>788</v>
       </c>
       <c r="B243" t="s">
-        <v>483</v>
+        <v>824</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>484</v>
+        <v>789</v>
       </c>
       <c r="B244" t="s">
-        <v>485</v>
+        <v>825</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>486</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>514</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>487</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>488</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>489</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>490</v>
+        <v>289</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>515</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>492</v>
+        <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>493</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>494</v>
+        <v>680</v>
       </c>
       <c r="B250" t="s">
-        <v>495</v>
+        <v>849</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>496</v>
+        <v>681</v>
       </c>
       <c r="B251" t="s">
-        <v>497</v>
+        <v>729</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>498</v>
+        <v>682</v>
       </c>
       <c r="B252" t="s">
-        <v>499</v>
+        <v>850</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>500</v>
+        <v>683</v>
       </c>
       <c r="B253" t="s">
-        <v>501</v>
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>502</v>
+        <v>684</v>
       </c>
       <c r="B254" t="s">
-        <v>521</v>
+        <v>685</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>516</v>
+        <v>107</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>504</v>
+        <v>17</v>
       </c>
       <c r="B256" t="s">
-        <v>518</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>505</v>
+        <v>18</v>
       </c>
       <c r="B257" t="s">
-        <v>506</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>507</v>
+        <v>108</v>
       </c>
       <c r="B258" t="s">
-        <v>508</v>
+        <v>109</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>509</v>
+        <v>19</v>
       </c>
       <c r="B259" t="s">
-        <v>519</v>
+        <v>110</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>510</v>
+        <v>20</v>
       </c>
       <c r="B260" t="s">
-        <v>511</v>
+        <v>111</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>512</v>
+        <v>112</v>
       </c>
       <c r="B261" t="s">
-        <v>517</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>513</v>
+        <v>113</v>
       </c>
       <c r="B262" t="s">
-        <v>520</v>
+        <v>114</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>522</v>
+        <v>407</v>
       </c>
       <c r="B263" t="s">
-        <v>523</v>
+        <v>408</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>524</v>
+        <v>409</v>
       </c>
       <c r="B264" t="s">
-        <v>525</v>
+        <v>410</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="B265" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>528</v>
+        <v>412</v>
       </c>
       <c r="B266" t="s">
-        <v>529</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>530</v>
+        <v>383</v>
       </c>
       <c r="B267" t="s">
-        <v>531</v>
+        <v>384</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>532</v>
+        <v>385</v>
       </c>
       <c r="B268" t="s">
-        <v>533</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>534</v>
+        <v>387</v>
       </c>
       <c r="B269" t="s">
-        <v>535</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>536</v>
+        <v>389</v>
       </c>
       <c r="B270" t="s">
-        <v>537</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>538</v>
+        <v>790</v>
       </c>
       <c r="B271" t="s">
-        <v>539</v>
+        <v>826</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>540</v>
+        <v>791</v>
       </c>
       <c r="B272" t="s">
-        <v>609</v>
+        <v>827</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>541</v>
+        <v>792</v>
       </c>
       <c r="B273" t="s">
-        <v>542</v>
+        <v>828</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
       <c r="B274" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="B275" t="s">
-        <v>610</v>
+        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="B276" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="B277" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="B278" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>552</v>
+        <v>686</v>
       </c>
       <c r="B279" t="s">
-        <v>553</v>
+        <v>687</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>554</v>
+        <v>688</v>
       </c>
       <c r="B280" t="s">
-        <v>555</v>
+        <v>746</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="B281" t="s">
-        <v>557</v>
+        <v>690</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>558</v>
+        <v>691</v>
       </c>
       <c r="B282" t="s">
-        <v>559</v>
+        <v>761</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>560</v>
+        <v>692</v>
       </c>
       <c r="B283" t="s">
-        <v>561</v>
+        <v>747</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>562</v>
+        <v>391</v>
       </c>
       <c r="B284" t="s">
-        <v>563</v>
+        <v>392</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>564</v>
+        <v>393</v>
       </c>
       <c r="B285" t="s">
-        <v>565</v>
+        <v>394</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>566</v>
+        <v>395</v>
       </c>
       <c r="B286" t="s">
-        <v>601</v>
+        <v>396</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>567</v>
+        <v>397</v>
       </c>
       <c r="B287" t="s">
-        <v>568</v>
+        <v>398</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>569</v>
+        <v>399</v>
       </c>
       <c r="B288" t="s">
-        <v>570</v>
+        <v>400</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>571</v>
+        <v>401</v>
       </c>
       <c r="B289" t="s">
-        <v>572</v>
+        <v>402</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="B290" t="s">
-        <v>604</v>
+        <v>404</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>574</v>
+        <v>405</v>
       </c>
       <c r="B291" t="s">
-        <v>611</v>
+        <v>406</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>575</v>
+        <v>438</v>
       </c>
       <c r="B292" t="s">
-        <v>605</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>576</v>
+        <v>439</v>
       </c>
       <c r="B293" t="s">
-        <v>607</v>
+        <v>440</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>577</v>
+        <v>441</v>
       </c>
       <c r="B294" t="s">
-        <v>578</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>579</v>
+        <v>443</v>
       </c>
       <c r="B295" t="s">
-        <v>580</v>
+        <v>444</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>581</v>
+        <v>414</v>
       </c>
       <c r="B296" t="s">
-        <v>606</v>
+        <v>415</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>582</v>
+        <v>416</v>
       </c>
       <c r="B297" t="s">
-        <v>612</v>
+        <v>417</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>583</v>
+        <v>418</v>
       </c>
       <c r="B298" t="s">
-        <v>608</v>
+        <v>419</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>584</v>
+        <v>420</v>
       </c>
       <c r="B299" t="s">
-        <v>585</v>
+        <v>421</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>586</v>
+        <v>793</v>
       </c>
       <c r="B300" t="s">
-        <v>587</v>
+        <v>829</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>588</v>
+        <v>794</v>
       </c>
       <c r="B301" t="s">
-        <v>589</v>
+        <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>590</v>
+        <v>795</v>
       </c>
       <c r="B302" t="s">
-        <v>591</v>
+        <v>866</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>592</v>
+        <v>500</v>
       </c>
       <c r="B303" t="s">
-        <v>593</v>
+        <v>501</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>594</v>
+        <v>502</v>
       </c>
       <c r="B304" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>596</v>
+        <v>503</v>
       </c>
       <c r="B305" t="s">
-        <v>597</v>
+        <v>516</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>598</v>
+        <v>504</v>
       </c>
       <c r="B306" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>599</v>
+        <v>505</v>
       </c>
       <c r="B307" t="s">
-        <v>600</v>
+        <v>506</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
       <c r="B308" t="s">
-        <v>631</v>
+        <v>851</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>626</v>
+        <v>694</v>
       </c>
       <c r="B309" t="s">
-        <v>625</v>
+        <v>748</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="B310" t="s">
-        <v>630</v>
+        <v>730</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="B311" t="s">
-        <v>622</v>
+        <v>750</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="B312" t="s">
-        <v>629</v>
+        <v>749</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>620</v>
+        <v>422</v>
       </c>
       <c r="B313" t="s">
-        <v>619</v>
+        <v>423</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>618</v>
+        <v>424</v>
       </c>
       <c r="B314" t="s">
-        <v>617</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>616</v>
+        <v>426</v>
       </c>
       <c r="B315" t="s">
-        <v>628</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>428</v>
+      </c>
+      <c r="B316" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>430</v>
+      </c>
+      <c r="B317" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>432</v>
+      </c>
+      <c r="B318" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>434</v>
+      </c>
+      <c r="B319" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>436</v>
+      </c>
+      <c r="B320" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>84</v>
+      </c>
+      <c r="B321" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>618</v>
+      </c>
+      <c r="B322" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>616</v>
+      </c>
+      <c r="B323" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>615</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B324" t="s">
         <v>614</v>
       </c>
     </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>65</v>
+      </c>
+      <c r="B325" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>66</v>
+      </c>
+      <c r="B326" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>627</v>
+      </c>
+      <c r="B327" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>626</v>
+      </c>
+      <c r="B328" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>796</v>
+      </c>
+      <c r="B329" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>797</v>
+      </c>
+      <c r="B330" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>798</v>
+      </c>
+      <c r="B331" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>339</v>
+      </c>
+      <c r="B332" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>341</v>
+      </c>
+      <c r="B333" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>345</v>
+      </c>
+      <c r="B335" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>347</v>
+      </c>
+      <c r="B336" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>698</v>
+      </c>
+      <c r="B337" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>699</v>
+      </c>
+      <c r="B338" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>701</v>
+      </c>
+      <c r="B339" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>702</v>
+      </c>
+      <c r="B340" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>704</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>67</v>
+      </c>
+      <c r="B342" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>68</v>
+      </c>
+      <c r="B343" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>624</v>
+      </c>
+      <c r="B344" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>623</v>
+      </c>
+      <c r="B345" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>69</v>
+      </c>
+      <c r="B346" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>70</v>
+      </c>
+      <c r="B347" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>621</v>
+      </c>
+      <c r="B348" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>620</v>
+      </c>
+      <c r="B349" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>72</v>
+      </c>
+      <c r="B350" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>98</v>
+      </c>
+      <c r="B351" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>100</v>
+      </c>
+      <c r="B352" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>102</v>
+      </c>
+      <c r="B353" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>2</v>
+      </c>
+      <c r="B355" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>799</v>
+      </c>
+      <c r="B358" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>800</v>
+      </c>
+      <c r="B359" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>801</v>
+      </c>
+      <c r="B360" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>253</v>
+      </c>
+      <c r="B361" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>255</v>
+      </c>
+      <c r="B362" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>256</v>
+      </c>
+      <c r="B363" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>258</v>
+      </c>
+      <c r="B364" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>260</v>
+      </c>
+      <c r="B365" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>705</v>
+      </c>
+      <c r="B366" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>707</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>708</v>
+      </c>
+      <c r="B368" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>710</v>
+      </c>
+      <c r="B369" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>711</v>
+      </c>
+      <c r="B370" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>6</v>
+      </c>
+      <c r="B372" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>93</v>
+      </c>
+      <c r="B374" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>8</v>
+      </c>
+      <c r="B375" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>208</v>
+      </c>
+      <c r="B379" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>209</v>
+      </c>
+      <c r="B380" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>210</v>
+      </c>
+      <c r="B381" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>211</v>
+      </c>
+      <c r="B382" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>196</v>
+      </c>
+      <c r="B383" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>197</v>
+      </c>
+      <c r="B384" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>198</v>
+      </c>
+      <c r="B385" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>199</v>
+      </c>
+      <c r="B386" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>802</v>
+      </c>
+      <c r="B387" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>803</v>
+      </c>
+      <c r="B388" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>804</v>
+      </c>
+      <c r="B389" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>280</v>
+      </c>
+      <c r="B390" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>282</v>
+      </c>
+      <c r="B391" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>284</v>
+      </c>
+      <c r="B392" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>286</v>
+      </c>
+      <c r="B393" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>287</v>
+      </c>
+      <c r="B394" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>712</v>
+      </c>
+      <c r="B395" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>714</v>
+      </c>
+      <c r="B396" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>715</v>
+      </c>
+      <c r="B397" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>717</v>
+      </c>
+      <c r="B398" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>718</v>
+      </c>
+      <c r="B399" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>200</v>
+      </c>
+      <c r="B400" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>201</v>
+      </c>
+      <c r="B401" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>202</v>
+      </c>
+      <c r="B402" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>203</v>
+      </c>
+      <c r="B403" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>205</v>
+      </c>
+      <c r="B405" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>207</v>
+      </c>
+      <c r="B407" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>467</v>
+      </c>
+      <c r="B408" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>469</v>
+      </c>
+      <c r="B409" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>470</v>
+      </c>
+      <c r="B410" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>472</v>
+      </c>
+      <c r="B411" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>445</v>
+      </c>
+      <c r="B412" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>446</v>
+      </c>
+      <c r="B413" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>448</v>
+      </c>
+      <c r="B414" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>450</v>
+      </c>
+      <c r="B415" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>805</v>
+      </c>
+      <c r="B416" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>806</v>
+      </c>
+      <c r="B417" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>807</v>
+      </c>
+      <c r="B418" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>507</v>
+      </c>
+      <c r="B419" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>509</v>
+      </c>
+      <c r="B420" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>510</v>
+      </c>
+      <c r="B421" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>512</v>
+      </c>
+      <c r="B422" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>513</v>
+      </c>
+      <c r="B423" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>719</v>
+      </c>
+      <c r="B424" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>720</v>
+      </c>
+      <c r="B425" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>721</v>
+      </c>
+      <c r="B426" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>722</v>
+      </c>
+      <c r="B427" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>723</v>
+      </c>
+      <c r="B428" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>452</v>
+      </c>
+      <c r="B429" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>453</v>
+      </c>
+      <c r="B430" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>455</v>
+      </c>
+      <c r="B431" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>457</v>
+      </c>
+      <c r="B432" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>459</v>
+      </c>
+      <c r="B433" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>461</v>
+      </c>
+      <c r="B434" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>463</v>
+      </c>
+      <c r="B435" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>465</v>
+      </c>
+      <c r="B436" t="s">
+        <v>466</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B436">
+    <sortCondition ref="A392:A436"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BEC3AA-D5FC-4370-B7BB-F2CCB45E51EE}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="64.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8617C9C-D09A-4CB7-9DDF-38D69A2772E5}">
+  <dimension ref="A1:B141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B141" xr:uid="{F8617C9C-D09A-4CB7-9DDF-38D69A2772E5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B141">
+      <sortCondition ref="A2:A141"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Combat Narrative Guide.xlsx
+++ b/Combat Narrative Guide.xlsx
@@ -8,30 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Foundry VTT\Data\modules\combat-narration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBC622-2424-4196-BBB5-38BFC6777328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DD70D6-D656-4D76-939F-4BF34B56047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OnDamageRoll" sheetId="1" r:id="rId1"/>
     <sheet name="Not Effective Expansion" sheetId="5" r:id="rId2"/>
     <sheet name="Monster Specific Expansion" sheetId="4" r:id="rId3"/>
+    <sheet name="Fear Expansion" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Monster Specific Expansion'!$A$1:$B$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OnDamageRoll!$A$1:$B$316</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1344">
   <si>
     <t>Filename</t>
   </si>
@@ -3943,6 +3955,126 @@
   </si>
   <si>
     <t>Your weapon whooshes past their torso. A tremor runs through their body.</t>
+  </si>
+  <si>
+    <t>fear_success_001.oog</t>
+  </si>
+  <si>
+    <t>The terror claws at their mind, but they force it back with a ragged breath.</t>
+  </si>
+  <si>
+    <t>fear_success_002.oog</t>
+  </si>
+  <si>
+    <t>fear_success_003.oog</t>
+  </si>
+  <si>
+    <t>Cold dread flashes through them, quickly smothered by sheer will.</t>
+  </si>
+  <si>
+    <t>fear_success_004.oog</t>
+  </si>
+  <si>
+    <t>Their heart races, but they refuse to give fear ground.</t>
+  </si>
+  <si>
+    <t>fear_success_005.oog</t>
+  </si>
+  <si>
+    <t>The horror presses in, only to be beaten back by grim resolve.</t>
+  </si>
+  <si>
+    <t>fear_success_006.oog</t>
+  </si>
+  <si>
+    <t>A flicker of panic dies as they lock their gaze forward.</t>
+  </si>
+  <si>
+    <t>fear_success_007.oog</t>
+  </si>
+  <si>
+    <t>Sweat beads as they steel themselves against the creeping terror.</t>
+  </si>
+  <si>
+    <t>fear_success_008.oog</t>
+  </si>
+  <si>
+    <t>The fear whispers promises of death, but they do not listen.</t>
+  </si>
+  <si>
+    <t>fear_success_009.oog</t>
+  </si>
+  <si>
+    <t>fear_success_010.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_001.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_002.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_003.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_004.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_005.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_006.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_007.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_008.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_009.oog</t>
+  </si>
+  <si>
+    <t>fear_fail_010.oog</t>
+  </si>
+  <si>
+    <t>Their form shakes, but they steady themselves before panic takes hold.</t>
+  </si>
+  <si>
+    <t>They refuse to be controlled by fear.</t>
+  </si>
+  <si>
+    <t>Horrifying thoughts pick at their mind, but they are rejected on false premise.</t>
+  </si>
+  <si>
+    <t>Terror floods their mind, drowning all reason!</t>
+  </si>
+  <si>
+    <t>Their eyes widen as panic takes full control!</t>
+  </si>
+  <si>
+    <t>A strangled gasp escapes as the fear locks in!</t>
+  </si>
+  <si>
+    <t>The horror overwhelms them, shaking them to their core!</t>
+  </si>
+  <si>
+    <t>Their courage shatters, leaving only raw panic behind!</t>
+  </si>
+  <si>
+    <t>They recoil in terror, instincts screaming to flee!</t>
+  </si>
+  <si>
+    <t>Their breath comes in short, frantic bursts as fear consumes them!</t>
+  </si>
+  <si>
+    <t>Their mind begins to spiral into a living nightmare!</t>
+  </si>
+  <si>
+    <t>Fear crushes their resolve, leaving them trembling and exposed!</t>
+  </si>
+  <si>
+    <t>Panic takes root in their mind, heart hammering wildly!</t>
   </si>
 </sst>
 </file>
@@ -4289,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -9578,4 +9710,224 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B38C8AD-3C55-4D25-998B-F386DA8AF4EA}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="112" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("&lt;emotion value='excited'/&gt;",B11,)</f>
+        <v>&lt;emotion value='excited'/&gt;Terror floods their mind, drowning all reason!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("&lt;emotion value='excited'/&gt;",B12,)</f>
+        <v>&lt;emotion value='excited'/&gt;Their eyes widen as panic takes full control!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:C19" si="0">_xlfn.CONCAT("&lt;emotion value='excited'/&gt;",B13,)</f>
+        <v>&lt;emotion value='excited'/&gt;A strangled gasp escapes as the fear locks in!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;emotion value='excited'/&gt;The horror overwhelms them, shaking them to their core!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;emotion value='excited'/&gt;Their courage shatters, leaving only raw panic behind!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;emotion value='excited'/&gt;They recoil in terror, instincts screaming to flee!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;emotion value='excited'/&gt;Their breath comes in short, frantic bursts as fear consumes them!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;emotion value='excited'/&gt;Their mind begins to spiral into a living nightmare!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;emotion value='excited'/&gt;Panic takes root in their mind, heart hammering wildly!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C20" t="str">
+        <f>_xlfn.CONCAT("&lt;emotion value='excited'/&gt;",B20,)</f>
+        <v>&lt;emotion value='excited'/&gt;Fear crushes their resolve, leaving them trembling and exposed!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Combat Narrative Guide.xlsx
+++ b/Combat Narrative Guide.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Foundry VTT\Data\modules\combat-narration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Github\foundry-combat-narration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844C14E-2470-4FFE-9A0D-DDE174448745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42696D98-A9F2-447A-A771-9F9D2CCB5493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OnDamageRoll" sheetId="1" r:id="rId1"/>
     <sheet name="CoreExpansion" sheetId="7" r:id="rId2"/>
-    <sheet name="Not Effective Expansion" sheetId="5" r:id="rId3"/>
-    <sheet name="Monster Specific Expansion" sheetId="4" r:id="rId4"/>
-    <sheet name="Fear Expansion" sheetId="6" r:id="rId5"/>
+    <sheet name="Condition expansion" sheetId="8" r:id="rId3"/>
+    <sheet name="Not Effective Expansion" sheetId="5" r:id="rId4"/>
+    <sheet name="Monster Specific Expansion" sheetId="4" r:id="rId5"/>
+    <sheet name="Fear Expansion" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Monster Specific Expansion'!$A$1:$B$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Monster Specific Expansion'!$A$1:$B$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OnDamageRoll!$A$1:$B$436</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1849">
   <si>
     <t>Filename</t>
   </si>
@@ -5354,6 +5355,243 @@
   </si>
   <si>
     <t>The blade lashes out, forcing a frantic step to avoid being carved open.</t>
+  </si>
+  <si>
+    <t>Dialogue Line</t>
+  </si>
+  <si>
+    <t>blinded_001.oog</t>
+  </si>
+  <si>
+    <t>Darkness crashes over their vision as they flail blindly for balance.</t>
+  </si>
+  <si>
+    <t>blinded_002.oog</t>
+  </si>
+  <si>
+    <t>blinded_003.oog</t>
+  </si>
+  <si>
+    <t>They swing wildly into the void, sight completely stolen.</t>
+  </si>
+  <si>
+    <t>charmed_001.oog</t>
+  </si>
+  <si>
+    <t>Their hostility falters, eyes softening despite the danger.</t>
+  </si>
+  <si>
+    <t>charmed_002.oog</t>
+  </si>
+  <si>
+    <t>They hesitate, compelled by feelings they don’t fully understand.</t>
+  </si>
+  <si>
+    <t>charmed_003.oog</t>
+  </si>
+  <si>
+    <t>A smile flickers where defiance once stood.</t>
+  </si>
+  <si>
+    <t>deafened_001.oog</t>
+  </si>
+  <si>
+    <t>Sound vanishes, leaving only ringing silence behind.</t>
+  </si>
+  <si>
+    <t>deafened_002.oog</t>
+  </si>
+  <si>
+    <t>They shout, unaware their voice never reaches the air.</t>
+  </si>
+  <si>
+    <t>deafened_003.oog</t>
+  </si>
+  <si>
+    <t>The world moves without sound, disorienting and wrong.</t>
+  </si>
+  <si>
+    <t>grappled_001.oog</t>
+  </si>
+  <si>
+    <t>Strong hands seize them, halting their momentum cold.</t>
+  </si>
+  <si>
+    <t>grappled_002.oog</t>
+  </si>
+  <si>
+    <t>They struggle against an iron grip, breath coming fast.</t>
+  </si>
+  <si>
+    <t>grappled_003.oog</t>
+  </si>
+  <si>
+    <t>Muscles strain uselessly as they’re locked in place.</t>
+  </si>
+  <si>
+    <t>incapacitated_001.oog</t>
+  </si>
+  <si>
+    <t>Their body refuses to respond, leaving them helpless.</t>
+  </si>
+  <si>
+    <t>incapacitated_002.oog</t>
+  </si>
+  <si>
+    <t>They sag, unable to act or react.</t>
+  </si>
+  <si>
+    <t>incapacitated_003.oog</t>
+  </si>
+  <si>
+    <t>Conscious but powerless, they can only endure.</t>
+  </si>
+  <si>
+    <t>invisible_001.oog</t>
+  </si>
+  <si>
+    <t>Their form blurs, then vanishes from sight.</t>
+  </si>
+  <si>
+    <t>invisible_002.oog</t>
+  </si>
+  <si>
+    <t>Only disturbed air marks where they once stood.</t>
+  </si>
+  <si>
+    <t>invisible_003.oog</t>
+  </si>
+  <si>
+    <t>They slip from view, unseen and untracked.</t>
+  </si>
+  <si>
+    <t>paralyzed_001.oog</t>
+  </si>
+  <si>
+    <t>Their body locks rigid, muscles betraying them.</t>
+  </si>
+  <si>
+    <t>paralyzed_002.oog</t>
+  </si>
+  <si>
+    <t>Frozen in place, even breath feels trapped.</t>
+  </si>
+  <si>
+    <t>paralyzed_003.oog</t>
+  </si>
+  <si>
+    <t>Eyes wide, they can’t move a single inch.</t>
+  </si>
+  <si>
+    <t>petrified_001.oog</t>
+  </si>
+  <si>
+    <t>Flesh stiffens, turning lifeless and cold.</t>
+  </si>
+  <si>
+    <t>petrified_002.oog</t>
+  </si>
+  <si>
+    <t>Motion dies as stone creeps through their veins.</t>
+  </si>
+  <si>
+    <t>petrified_003.oog</t>
+  </si>
+  <si>
+    <t>They freeze forever in a final, silent moment.</t>
+  </si>
+  <si>
+    <t>poisoned_001.oog</t>
+  </si>
+  <si>
+    <t>A sickly pallor spreads as venom takes hold.</t>
+  </si>
+  <si>
+    <t>poisoned_002.oog</t>
+  </si>
+  <si>
+    <t>They gag and stagger, body fighting the toxin.</t>
+  </si>
+  <si>
+    <t>poisoned_003.oog</t>
+  </si>
+  <si>
+    <t>Breath shortens as poison gnaws from within.</t>
+  </si>
+  <si>
+    <t>prone_001.oog</t>
+  </si>
+  <si>
+    <t>They crash to the ground in a heap.</t>
+  </si>
+  <si>
+    <t>prone_002.oog</t>
+  </si>
+  <si>
+    <t>The impact knocks the wind from their lungs.</t>
+  </si>
+  <si>
+    <t>prone_003.oog</t>
+  </si>
+  <si>
+    <t>They scramble helplessly against the dirt.</t>
+  </si>
+  <si>
+    <t>restrained_001.oog</t>
+  </si>
+  <si>
+    <t>Bindings tighten, cutting off any chance of escape.</t>
+  </si>
+  <si>
+    <t>restrained_002.oog</t>
+  </si>
+  <si>
+    <t>Every movement is painfully limited.</t>
+  </si>
+  <si>
+    <t>restrained_003.oog</t>
+  </si>
+  <si>
+    <t>They strain against their bonds to no avail.</t>
+  </si>
+  <si>
+    <t>stunned_001.oog</t>
+  </si>
+  <si>
+    <t>Their mind reels, senses overloaded.</t>
+  </si>
+  <si>
+    <t>stunned_002.oog</t>
+  </si>
+  <si>
+    <t>They stand dazed, barely aware of the world.</t>
+  </si>
+  <si>
+    <t>stunned_003.oog</t>
+  </si>
+  <si>
+    <t>Thought and motion grind to a halt.</t>
+  </si>
+  <si>
+    <t>exhausted_001.oog</t>
+  </si>
+  <si>
+    <t>Their movements slow, fatigue weighing heavily.</t>
+  </si>
+  <si>
+    <t>exhausted_002.oog</t>
+  </si>
+  <si>
+    <t>Every breath burns as strength drains away.</t>
+  </si>
+  <si>
+    <t>exhausted_003.oog</t>
+  </si>
+  <si>
+    <t>Their eyes blink wildly, useless.</t>
+  </si>
+  <si>
+    <t>They push on through sheer exhaustion.</t>
   </si>
 </sst>
 </file>
@@ -5418,7 +5656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5437,6 +5675,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9277,7 +9518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BB66ED-864E-42E5-AB72-EE6D562BEBF7}">
   <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
@@ -11295,6 +11536,345 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4916CE0-7A30-45DF-A657-E2A8E2CE3061}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="11.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="53.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="41.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="25.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="41.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="41.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="32.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="42.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="33.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="31.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BEC3AA-D5FC-4370-B7BB-F2CCB45E51EE}">
   <dimension ref="A1:B76"/>
   <sheetViews>
@@ -11921,7 +12501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8617C9C-D09A-4CB7-9DDF-38D69A2772E5}">
   <dimension ref="A1:B141"/>
   <sheetViews>
@@ -13074,12 +13654,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B38C8AD-3C55-4D25-998B-F386DA8AF4EA}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
